--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value464.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value464.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.210055212778638</v>
+        <v>0.9649395346641541</v>
       </c>
       <c r="B1">
-        <v>1.805542507231801</v>
+        <v>1.430371165275574</v>
       </c>
       <c r="C1">
-        <v>3.727988479462841</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.354242802737462</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.630021748357714</v>
+        <v>1.375333905220032</v>
       </c>
     </row>
   </sheetData>
